--- a/biology/Zoologie/Jemadia_menechmus/Jemadia_menechmus.xlsx
+++ b/biology/Zoologie/Jemadia_menechmus/Jemadia_menechmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia menechmus est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia menechmus a été nommé par Paul Mabille en 1878[1].
-Nom vernaculaire
-Jemadia menechmus se nomme Mabille's Sabre-wing en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia menechmus a été nommé par Paul Mabille en 1878.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia menechmus se nomme Mabille's Sabre-wing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jemadia_menechmus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_menechmus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia menechmus est un papillon au corps trapu, au thorax noir rayé en long de bandes de poils bleu clair et à l'abdomen cerclé de bleu clair. 
 Les ailes sont de couleur bleu moyen marquées aux ailes antérieures d'une plage et de deux petites bandes  blanches avec une ligne submarginale bleu clair métallisé et une autre ligne bleu clair métallisé proche de la partie basale, qui, aux ailes antérieures se continue le long du bord interne.
@@ -553,36 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jemadia_menechmus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jemadia_menechmus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -607,15 +628,87 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia menechmus est présent au Surinam, Venezuela, en Colombie, en Équateur, en Bolivie, au Pérou et au Brésil[2],[3].
-Biotope
-Jemadia menechmus réside dans la forêt primaire à une altitude entre 200 m et 800 m[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia menechmus est présent au Surinam, Venezuela, en Colombie, en Équateur, en Bolivie, au Pérou et au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jemadia_menechmus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_menechmus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia menechmus réside dans la forêt primaire à une altitude entre 200 m et 800 m.
 Sur les autres projets Wikimedia :
 Jemadia menechmus, sur Wikimedia CommonsJemadia menechmus, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jemadia_menechmus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_menechmus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
